--- a/outputs-GTDB-r202/g__Eubacterium_T.xlsx
+++ b/outputs-GTDB-r202/g__Eubacterium_T.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__Eubacterium_T pyruvativorans</t>
+          <t>s__Eubacterium_T pyruvativorans(reject)</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>s__Eubacterium_T sp900318155</t>
+          <t>s__Eubacterium_T sp900318155(reject)</t>
         </is>
       </c>
     </row>
